--- a/mySystem/mySystem/xls/cleancut/SOP-MFG-302-R02A 清洁分切机开机确认.xlsx
+++ b/mySystem/mySystem/xls/cleancut/SOP-MFG-302-R02A 清洁分切机开机确认.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCXFD\mySystem\mySystem\xls\cleancut\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\upload\mitcpro\mySystem\mySystem\xls\cleancut\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="92">
   <si>
     <t>吹模机组开机前确认表</t>
   </si>
@@ -1070,57 +1070,31 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>车间：温度：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
+      <t>生产班次：白班□</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>℃，湿度：</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">      </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>﹪。</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>夜班□</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1273,7 +1247,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -1523,49 +1497,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1575,7 +1506,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1663,15 +1594,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
@@ -1750,6 +1693,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1767,39 +1734,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -1823,7 +1757,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2135,13 +2069,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
     </row>
     <row r="3" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
@@ -2150,10 +2084,10 @@
       <c r="B3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="42"/>
+      <c r="D3" s="46"/>
       <c r="E3" s="2" t="s">
         <v>3</v>
       </c>
@@ -2165,10 +2099,10 @@
       <c r="B4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="37"/>
+      <c r="D4" s="41"/>
       <c r="E4" s="3" t="s">
         <v>46</v>
       </c>
@@ -2180,10 +2114,10 @@
       <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="37"/>
+      <c r="D5" s="41"/>
       <c r="E5" s="3" t="s">
         <v>46</v>
       </c>
@@ -2195,10 +2129,10 @@
       <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="37"/>
+      <c r="D6" s="41"/>
       <c r="E6" s="3" t="s">
         <v>46</v>
       </c>
@@ -2210,10 +2144,10 @@
       <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="37"/>
+      <c r="D7" s="41"/>
       <c r="E7" s="3" t="s">
         <v>46</v>
       </c>
@@ -2225,10 +2159,10 @@
       <c r="B8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="37"/>
+      <c r="D8" s="41"/>
       <c r="E8" s="3" t="s">
         <v>46</v>
       </c>
@@ -2240,10 +2174,10 @@
       <c r="B9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="37" t="s">
+      <c r="C9" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="37"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="3" t="s">
         <v>46</v>
       </c>
@@ -2255,10 +2189,10 @@
       <c r="B10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="37" t="s">
+      <c r="C10" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="37"/>
+      <c r="D10" s="41"/>
       <c r="E10" s="3" t="s">
         <v>46</v>
       </c>
@@ -2270,10 +2204,10 @@
       <c r="B11" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="37" t="s">
+      <c r="C11" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="37"/>
+      <c r="D11" s="41"/>
       <c r="E11" s="3" t="s">
         <v>46</v>
       </c>
@@ -2285,10 +2219,10 @@
       <c r="B12" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="37"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="3" t="s">
         <v>46</v>
       </c>
@@ -2300,10 +2234,10 @@
       <c r="B13" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="37"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="3" t="s">
         <v>46</v>
       </c>
@@ -2315,10 +2249,10 @@
       <c r="B14" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="37"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="3" t="s">
         <v>46</v>
       </c>
@@ -2330,10 +2264,10 @@
       <c r="B15" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="37"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="3" t="s">
         <v>46</v>
       </c>
@@ -2345,10 +2279,10 @@
       <c r="B16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="D16" s="37"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="3" t="s">
         <v>46</v>
       </c>
@@ -2360,10 +2294,10 @@
       <c r="B17" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="37"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="3" t="s">
         <v>46</v>
       </c>
@@ -2375,10 +2309,10 @@
       <c r="B18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="37"/>
+      <c r="D18" s="41"/>
       <c r="E18" s="3" t="s">
         <v>46</v>
       </c>
@@ -2390,10 +2324,10 @@
       <c r="B19" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="37" t="s">
+      <c r="C19" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="37"/>
+      <c r="D19" s="41"/>
       <c r="E19" s="3" t="s">
         <v>46</v>
       </c>
@@ -2405,10 +2339,10 @@
       <c r="B20" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="37"/>
+      <c r="D20" s="41"/>
       <c r="E20" s="3" t="s">
         <v>46</v>
       </c>
@@ -2420,33 +2354,33 @@
       <c r="B21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C21" s="37" t="s">
+      <c r="C21" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="37"/>
+      <c r="D21" s="41"/>
       <c r="E21" s="3" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
+      <c r="B22" s="43"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
     </row>
     <row r="23" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32" t="s">
+      <c r="A23" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="35" t="s">
+      <c r="B23" s="37"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="E23" s="36"/>
+      <c r="E23" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="23">
@@ -2517,36 +2451,36 @@
       </c>
     </row>
     <row r="2" spans="1:10" s="11" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
     </row>
     <row r="3" spans="1:10" s="12" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="53" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="54" t="s">
+      <c r="F3" s="57"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58" t="s">
         <v>56</v>
       </c>
-      <c r="I3" s="54"/>
-      <c r="J3" s="54"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
     </row>
     <row r="4" spans="1:10" ht="42.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
@@ -2764,11 +2698,11 @@
       <c r="A15" s="13">
         <v>11</v>
       </c>
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
       <c r="E15" s="16"/>
       <c r="F15" s="17"/>
       <c r="G15" s="13"/>
@@ -2777,36 +2711,36 @@
       <c r="J15" s="18"/>
     </row>
     <row r="16" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="56"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="43" t="s">
+      <c r="B16" s="60"/>
+      <c r="C16" s="60"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="47" t="s">
         <v>80</v>
       </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:10" s="21" customFormat="1" ht="31.15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="50" t="s">
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2831,7 +2765,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C10" sqref="C9:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="34.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2839,8 +2773,8 @@
     <col min="1" max="1" width="9.75" style="15" customWidth="1"/>
     <col min="2" max="2" width="20.125" style="15" customWidth="1"/>
     <col min="3" max="3" width="37.875" style="22" customWidth="1"/>
-    <col min="4" max="4" width="47" style="15" customWidth="1"/>
-    <col min="5" max="5" width="20.625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="38" style="15" customWidth="1"/>
+    <col min="5" max="5" width="33.75" style="15" customWidth="1"/>
     <col min="6" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
@@ -2851,29 +2785,31 @@
       <c r="B1" s="24"/>
       <c r="C1" s="25"/>
       <c r="D1" s="24"/>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="30" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="11" customFormat="1" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
     </row>
     <row r="3" spans="1:5" s="12" customFormat="1" ht="28.7" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="74" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="30" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="69"/>
+      <c r="E3" s="35" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="42.2" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28" t="s">
@@ -2882,127 +2818,121 @@
       <c r="B4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="50" t="s">
         <v>59</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="70" t="s">
+      <c r="D4" s="51"/>
+      <c r="E4" s="31" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="28"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="71"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="32"/>
     </row>
     <row r="6" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="28"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="71"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="32"/>
     </row>
     <row r="7" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="28"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="67"/>
-      <c r="D7" s="68"/>
-      <c r="E7" s="71"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="32"/>
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="28"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="71"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="32"/>
     </row>
     <row r="9" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="28"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="71"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="32"/>
     </row>
     <row r="10" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="28"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="71"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="32"/>
     </row>
     <row r="11" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="28"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="71"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="32"/>
     </row>
     <row r="12" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="28"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="71"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="32"/>
     </row>
     <row r="13" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="28"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="71"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="32"/>
     </row>
     <row r="14" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="29"/>
-      <c r="B14" s="65" t="s">
-        <v>91</v>
-      </c>
-      <c r="C14" s="66"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="72"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="32"/>
     </row>
     <row r="15" spans="1:5" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="64" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="64"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="73" t="s">
-        <v>80</v>
-      </c>
-      <c r="E15" s="74"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="67"/>
     </row>
     <row r="16" spans="1:5" s="21" customFormat="1" ht="31.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="60" t="s">
+      <c r="A16" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="73" t="s">
         <v>84</v>
       </c>
-      <c r="E16" s="61"/>
+      <c r="E16" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="15">
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="A15:E15"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.52" right="0.4" top="0.8" bottom="0.49" header="0.31496062992125984" footer="0.31496062992125984"/>
